--- a/data/方差分析.xlsx
+++ b/data/方差分析.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>行业</t>
   </si>
@@ -378,12 +378,24 @@
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>方差分析：单因素方差分析</t>
+  </si>
+  <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>组间</t>
+  </si>
+  <si>
+    <t>组内</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -470,6 +482,12 @@
       <color rgb="FF363636"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -627,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -710,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,15 +1013,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -1008,8 +1029,11 @@
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="27" t="s">
         <v>0</v>
@@ -1018,7 +1042,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,8 +1058,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1051,8 +1078,23 @@
       <c r="E4" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1068,8 +1110,23 @@
       <c r="E5" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20">
+        <v>7</v>
+      </c>
+      <c r="I5" s="20">
+        <v>343</v>
+      </c>
+      <c r="J5" s="20">
+        <v>49</v>
+      </c>
+      <c r="K5" s="20">
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1085,8 +1142,23 @@
       <c r="E6" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20">
+        <v>6</v>
+      </c>
+      <c r="I6" s="20">
+        <v>288</v>
+      </c>
+      <c r="J6" s="20">
+        <v>48</v>
+      </c>
+      <c r="K6" s="20">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1102,8 +1174,23 @@
       <c r="E7" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="20">
+        <v>5</v>
+      </c>
+      <c r="I7" s="20">
+        <v>175</v>
+      </c>
+      <c r="J7" s="20">
+        <v>35</v>
+      </c>
+      <c r="K7" s="20">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1119,8 +1206,23 @@
       <c r="E8" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21">
+        <v>5</v>
+      </c>
+      <c r="I8" s="21">
+        <v>295</v>
+      </c>
+      <c r="J8" s="21">
+        <v>59</v>
+      </c>
+      <c r="K8" s="21">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1133,7 +1235,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1143,6 +1245,98 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1456.608695652174</v>
+      </c>
+      <c r="I13" s="20">
+        <v>3</v>
+      </c>
+      <c r="J13" s="20">
+        <v>485.536231884058</v>
+      </c>
+      <c r="K13" s="20">
+        <v>3.4066426904716036</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3.876452440122187E-2</v>
+      </c>
+      <c r="M13" s="20">
+        <v>3.1273500051133998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="20">
+        <v>2708</v>
+      </c>
+      <c r="I14" s="20">
+        <v>19</v>
+      </c>
+      <c r="J14" s="20">
+        <v>142.52631578947367</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="21">
+        <v>4164.608695652174</v>
+      </c>
+      <c r="I16" s="21">
+        <v>22</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2090,10 +2284,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="D2:E24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2101,336 +2295,195 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>57</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>66</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>49</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6">
         <v>53</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="9">
         <v>44</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>68</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6">
         <v>39</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6">
         <v>29</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6">
         <v>45</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6">
         <v>56</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6">
         <v>51</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4">
         <v>31</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>49</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6">
         <v>34</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6">
         <v>40</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4">
         <v>44</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6">
         <v>51</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6">
         <v>65</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6">
         <v>77</v>
       </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6">
         <v>58</v>
       </c>
     </row>
